--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.319636</v>
+        <v>54.86839566666666</v>
       </c>
       <c r="H2">
-        <v>171.958908</v>
+        <v>164.605187</v>
       </c>
       <c r="I2">
-        <v>0.5476981520382651</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="J2">
-        <v>0.547698152038265</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N2">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q2">
-        <v>216.578748128204</v>
+        <v>142.5572183851459</v>
       </c>
       <c r="R2">
-        <v>1949.208733153836</v>
+        <v>1283.014965466313</v>
       </c>
       <c r="S2">
-        <v>0.2329344646734626</v>
+        <v>0.2138855687374622</v>
       </c>
       <c r="T2">
-        <v>0.2329344646734625</v>
+        <v>0.2138855687374622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.319636</v>
+        <v>54.86839566666666</v>
       </c>
       <c r="H3">
-        <v>171.958908</v>
+        <v>164.605187</v>
       </c>
       <c r="I3">
-        <v>0.5476981520382651</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="J3">
-        <v>0.547698152038265</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
         <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q3">
-        <v>248.3891017078534</v>
+        <v>237.7668886765855</v>
       </c>
       <c r="R3">
-        <v>2235.50191537068</v>
+        <v>2139.90199808927</v>
       </c>
       <c r="S3">
-        <v>0.2671470905482921</v>
+        <v>0.3567332947962971</v>
       </c>
       <c r="T3">
-        <v>0.2671470905482921</v>
+        <v>0.3567332947962971</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.319636</v>
+        <v>54.86839566666666</v>
       </c>
       <c r="H4">
-        <v>171.958908</v>
+        <v>164.605187</v>
       </c>
       <c r="I4">
-        <v>0.5476981520382651</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="J4">
-        <v>0.547698152038265</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N4">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O4">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P4">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q4">
-        <v>27.59397847512533</v>
+        <v>25.74448900984789</v>
       </c>
       <c r="R4">
-        <v>248.345806276128</v>
+        <v>231.700401088631</v>
       </c>
       <c r="S4">
-        <v>0.02967783616751516</v>
+        <v>0.03862571629905211</v>
       </c>
       <c r="T4">
-        <v>0.02967783616751515</v>
+        <v>0.03862571629905211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.319636</v>
+        <v>54.86839566666666</v>
       </c>
       <c r="H5">
-        <v>171.958908</v>
+        <v>164.605187</v>
       </c>
       <c r="I5">
-        <v>0.5476981520382651</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="J5">
-        <v>0.547698152038265</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N5">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q5">
-        <v>16.67917338800533</v>
+        <v>5.231664947886221</v>
       </c>
       <c r="R5">
-        <v>150.112560492048</v>
+        <v>47.08498453097599</v>
       </c>
       <c r="S5">
-        <v>0.01793876064899528</v>
+        <v>0.007849322857853159</v>
       </c>
       <c r="T5">
-        <v>0.01793876064899527</v>
+        <v>0.007849322857853159</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>17.925553</v>
       </c>
       <c r="I6">
-        <v>0.05709382762749331</v>
+        <v>0.06720170646055251</v>
       </c>
       <c r="J6">
-        <v>0.05709382762749329</v>
+        <v>0.0672017064605525</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N6">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q6">
-        <v>22.57686951725567</v>
+        <v>15.52452277032745</v>
       </c>
       <c r="R6">
-        <v>203.191825655301</v>
+        <v>139.720704932947</v>
       </c>
       <c r="S6">
-        <v>0.02428184233427896</v>
+        <v>0.0232922009823331</v>
       </c>
       <c r="T6">
-        <v>0.02428184233427896</v>
+        <v>0.02329220098233309</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>17.925553</v>
       </c>
       <c r="I7">
-        <v>0.05709382762749331</v>
+        <v>0.06720170646055251</v>
       </c>
       <c r="J7">
-        <v>0.05709382762749329</v>
+        <v>0.0672017064605525</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
         <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q7">
-        <v>25.89288370734779</v>
+        <v>25.89288370734778</v>
       </c>
       <c r="R7">
         <v>233.03595336613</v>
       </c>
       <c r="S7">
-        <v>0.02784827716176943</v>
+        <v>0.0388483601232788</v>
       </c>
       <c r="T7">
-        <v>0.02784827716176942</v>
+        <v>0.0388483601232788</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>17.925553</v>
       </c>
       <c r="I8">
-        <v>0.05709382762749331</v>
+        <v>0.06720170646055251</v>
       </c>
       <c r="J8">
-        <v>0.05709382762749329</v>
+        <v>0.0672017064605525</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N8">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O8">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P8">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q8">
-        <v>2.876485605716444</v>
+        <v>2.803582381665445</v>
       </c>
       <c r="R8">
-        <v>25.888370451448</v>
+        <v>25.232241434989</v>
       </c>
       <c r="S8">
-        <v>0.003093713674583871</v>
+        <v>0.004206351800333137</v>
       </c>
       <c r="T8">
-        <v>0.003093713674583871</v>
+        <v>0.004206351800333136</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>17.925553</v>
       </c>
       <c r="I9">
-        <v>0.05709382762749331</v>
+        <v>0.06720170646055251</v>
       </c>
       <c r="J9">
-        <v>0.05709382762749329</v>
+        <v>0.0672017064605525</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N9">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q9">
-        <v>1.738691004963111</v>
+        <v>0.5697298427271111</v>
       </c>
       <c r="R9">
-        <v>15.648219044668</v>
+        <v>5.127568584544</v>
       </c>
       <c r="S9">
-        <v>0.00186999445686105</v>
+        <v>0.000854793554607476</v>
       </c>
       <c r="T9">
-        <v>0.001869994456861049</v>
+        <v>0.0008547935546074757</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.037676333333332</v>
+        <v>4.832157666666667</v>
       </c>
       <c r="H10">
-        <v>27.113029</v>
+        <v>14.496473</v>
       </c>
       <c r="I10">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="J10">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N10">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q10">
-        <v>34.14830872724366</v>
+        <v>12.55474936689189</v>
       </c>
       <c r="R10">
-        <v>307.334778545193</v>
+        <v>112.992744302027</v>
       </c>
       <c r="S10">
-        <v>0.03672714004319605</v>
+        <v>0.0188365046618626</v>
       </c>
       <c r="T10">
-        <v>0.03672714004319605</v>
+        <v>0.0188365046618626</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.037676333333332</v>
+        <v>4.832157666666667</v>
       </c>
       <c r="H11">
-        <v>27.113029</v>
+        <v>14.496473</v>
       </c>
       <c r="I11">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="J11">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
         <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q11">
-        <v>39.16389674845444</v>
+        <v>20.93968813992556</v>
       </c>
       <c r="R11">
-        <v>352.47507073609</v>
+        <v>188.45719325933</v>
       </c>
       <c r="S11">
-        <v>0.04212149808081748</v>
+        <v>0.03141683849984365</v>
       </c>
       <c r="T11">
-        <v>0.04212149808081748</v>
+        <v>0.03141683849984365</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.037676333333332</v>
+        <v>4.832157666666667</v>
       </c>
       <c r="H12">
-        <v>27.113029</v>
+        <v>14.496473</v>
       </c>
       <c r="I12">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="J12">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N12">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O12">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P12">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q12">
-        <v>4.35078558780711</v>
+        <v>2.267269316549889</v>
       </c>
       <c r="R12">
-        <v>39.157070290264</v>
+        <v>20.405423848949</v>
       </c>
       <c r="S12">
-        <v>0.004679350677587968</v>
+        <v>0.003401695071947332</v>
       </c>
       <c r="T12">
-        <v>0.004679350677587969</v>
+        <v>0.003401695071947332</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.037676333333332</v>
+        <v>4.832157666666667</v>
       </c>
       <c r="H13">
-        <v>27.113029</v>
+        <v>14.496473</v>
       </c>
       <c r="I13">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="J13">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N13">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q13">
-        <v>2.629831260413777</v>
+        <v>0.4607430120782223</v>
       </c>
       <c r="R13">
-        <v>23.668481343724</v>
+        <v>4.146687108704</v>
       </c>
       <c r="S13">
-        <v>0.002828432346757329</v>
+        <v>0.0006912752808764841</v>
       </c>
       <c r="T13">
-        <v>0.002828432346757329</v>
+        <v>0.0006912752808764839</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>32.32302533333333</v>
+        <v>23.238438</v>
       </c>
       <c r="H14">
-        <v>96.969076</v>
+        <v>69.71531400000001</v>
       </c>
       <c r="I14">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="J14">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N14">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q14">
-        <v>122.1305795174547</v>
+        <v>60.37732725085401</v>
       </c>
       <c r="R14">
-        <v>1099.175215657092</v>
+        <v>543.3959452576861</v>
       </c>
       <c r="S14">
-        <v>0.1313537057815016</v>
+        <v>0.090587057773585</v>
       </c>
       <c r="T14">
-        <v>0.1313537057815016</v>
+        <v>0.090587057773585</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>32.32302533333333</v>
+        <v>23.238438</v>
       </c>
       <c r="H15">
-        <v>96.969076</v>
+        <v>69.71531400000001</v>
       </c>
       <c r="I15">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="J15">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
         <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q15">
-        <v>140.0687057228845</v>
+        <v>100.70152469066</v>
       </c>
       <c r="R15">
-        <v>1260.61835150596</v>
+        <v>906.3137222159401</v>
       </c>
       <c r="S15">
-        <v>0.1506464935597068</v>
+        <v>0.1510874238791662</v>
       </c>
       <c r="T15">
-        <v>0.1506464935597068</v>
+        <v>0.1510874238791662</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>32.32302533333333</v>
+        <v>23.238438</v>
       </c>
       <c r="H16">
-        <v>96.969076</v>
+        <v>69.71531400000001</v>
       </c>
       <c r="I16">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="J16">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N16">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O16">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P16">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q16">
-        <v>15.56047678493511</v>
+        <v>10.903575809498</v>
       </c>
       <c r="R16">
-        <v>140.044291064416</v>
+        <v>98.132182285482</v>
       </c>
       <c r="S16">
-        <v>0.0167355816823594</v>
+        <v>0.01635916819719258</v>
       </c>
       <c r="T16">
-        <v>0.0167355816823594</v>
+        <v>0.01635916819719258</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>32.32302533333333</v>
+        <v>23.238438</v>
       </c>
       <c r="H17">
-        <v>96.969076</v>
+        <v>69.71531400000001</v>
       </c>
       <c r="I17">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="J17">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N17">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q17">
-        <v>9.405526300961778</v>
+        <v>2.215769571008</v>
       </c>
       <c r="R17">
-        <v>84.64973670865599</v>
+        <v>19.941926139072</v>
       </c>
       <c r="S17">
-        <v>0.01011581816231487</v>
+        <v>0.003324427484308927</v>
       </c>
       <c r="T17">
-        <v>0.01011581816231487</v>
+        <v>0.003324427484308926</v>
       </c>
     </row>
   </sheetData>
